--- a/input.xlsx
+++ b/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\techa\Documents\Proyectos\Freelancer\amazon-scrap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E95DBF5-E5DC-48C8-9A69-A56A0E53AFC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2895080C-7F93-47E4-9BD3-5FA8E089853A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18720" xr2:uid="{A055B0EE-8D2C-4969-940E-AFC75A4C5490}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A055B0EE-8D2C-4969-940E-AFC75A4C5490}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <t>Umbral</t>
   </si>
   <si>
-    <t>reloj</t>
+    <t>billetera</t>
   </si>
 </sst>
 </file>
@@ -398,16 +398,16 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.84375" customWidth="1"/>
-    <col min="2" max="2" width="21.69140625" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -415,12 +415,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/input.xlsx
+++ b/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\techa\Documents\Proyectos\Freelancer\amazon-scrap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2895080C-7F93-47E4-9BD3-5FA8E089853A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01916F8-0F81-41BD-B261-B84BD9B4D746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A055B0EE-8D2C-4969-940E-AFC75A4C5490}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Producto</t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t>billetera</t>
+  </si>
+  <si>
+    <t>Correo</t>
+  </si>
+  <si>
+    <t>felipe.gutierreze@hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -395,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{381E1D98-F70D-44C6-B607-4F6D020A5EDC}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -407,23 +413,30 @@
     <col min="2" max="2" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
         <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>